--- a/documentation/project4_hours.xlsx
+++ b/documentation/project4_hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landen/Desktop/Classes/Spring22/eecs448/Project4/ds_visualizerProject4/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef0d66f1688d40a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4830679-0F2C-E147-B16A-D318C2B53246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E4830679-0F2C-E147-B16A-D318C2B53246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B039E1-5B89-495D-B21B-F17C3FFF449E}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1600" windowWidth="27720" windowHeight="15840" xr2:uid="{095FDC74-654F-AD46-9E96-47D17C496F71}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{095FDC74-654F-AD46-9E96-47D17C496F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Landen</t>
+  </si>
+  <si>
+    <t>Duy</t>
   </si>
 </sst>
 </file>
@@ -423,19 +426,19 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -446,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -457,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -468,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -479,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -490,55 +493,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44672</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15">
         <f>SUM(C3:C14)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
   </sheetData>

--- a/documentation/project4_hours.xlsx
+++ b/documentation/project4_hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef0d66f1688d40a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Z\Desktop\Battleship Game Project 1 EECS448\Project 4\ds_visualizerProject4\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E4830679-0F2C-E147-B16A-D318C2B53246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B039E1-5B89-495D-B21B-F17C3FFF449E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AB4624-EF13-472F-87C4-BB5F670494E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{095FDC74-654F-AD46-9E96-47D17C496F71}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{095FDC74-654F-AD46-9E96-47D17C496F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +58,9 @@
   </si>
   <si>
     <t>Duy</t>
+  </si>
+  <si>
+    <t>Eric</t>
   </si>
 </sst>
 </file>
@@ -426,7 +428,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -505,10 +507,26 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44675</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -531,7 +549,7 @@
       </c>
       <c r="C15">
         <f>SUM(C3:C14)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/documentation/project4_hours.xlsx
+++ b/documentation/project4_hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Hour Tracking - Project 4</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Duy</t>
+  </si>
+  <si>
+    <t>Eric</t>
   </si>
   <si>
     <t>Total</t>
@@ -54,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,12 +69,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -109,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,18 +126,15 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -151,7 +145,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,9 +455,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -502,7 +496,7 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>3</v>
       </c>
     </row>
@@ -524,7 +518,7 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>2</v>
       </c>
     </row>
@@ -568,44 +562,56 @@
       <c r="B10" s="7">
         <v>44673</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44674</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44675</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="11" t="s">
-        <v>10</v>
+      <c r="B17" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C17" s="8">
         <f>sum(C3:C16)</f>
@@ -614,32 +620,32 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
+      <c r="C18" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
